--- a/data/pca/factorExposure/factorExposure_2012-03-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0142908073385645</v>
+        <v>0.01465420038861378</v>
       </c>
       <c r="C2">
-        <v>0.03166650554067027</v>
+        <v>0.02663794392336199</v>
       </c>
       <c r="D2">
-        <v>0.0008711963254345193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.003942143403014725</v>
+      </c>
+      <c r="E2">
+        <v>-0.01034281042896845</v>
+      </c>
+      <c r="F2">
+        <v>-0.01185688137882961</v>
+      </c>
+      <c r="G2">
+        <v>-0.01617129333005188</v>
+      </c>
+      <c r="H2">
+        <v>0.05048385047056735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07341422915460455</v>
+        <v>0.08765595647048265</v>
       </c>
       <c r="C4">
-        <v>0.05217283079307287</v>
+        <v>0.03802004148235477</v>
       </c>
       <c r="D4">
-        <v>-0.08205697597110458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06598375350438727</v>
+      </c>
+      <c r="E4">
+        <v>-0.01486566290136007</v>
+      </c>
+      <c r="F4">
+        <v>-0.03053813962122719</v>
+      </c>
+      <c r="G4">
+        <v>-0.002865673304294114</v>
+      </c>
+      <c r="H4">
+        <v>-0.04109308390838631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1076688456367739</v>
+        <v>0.1195877351880547</v>
       </c>
       <c r="C6">
-        <v>0.05532633407785763</v>
+        <v>0.03464376245222393</v>
       </c>
       <c r="D6">
-        <v>0.005008334703093083</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01018942706008266</v>
+      </c>
+      <c r="E6">
+        <v>0.005746962652919599</v>
+      </c>
+      <c r="F6">
+        <v>-0.0541272836713798</v>
+      </c>
+      <c r="G6">
+        <v>-0.03384937955031705</v>
+      </c>
+      <c r="H6">
+        <v>0.1072595900817063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04964553067385651</v>
+        <v>0.0640149529128969</v>
       </c>
       <c r="C7">
-        <v>0.02913469655491121</v>
+        <v>0.02091720507721873</v>
       </c>
       <c r="D7">
-        <v>-0.04463860185485598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04512643492227814</v>
+      </c>
+      <c r="E7">
+        <v>-0.03572904687740603</v>
+      </c>
+      <c r="F7">
+        <v>-0.03570040675158302</v>
+      </c>
+      <c r="G7">
+        <v>0.03637932375081136</v>
+      </c>
+      <c r="H7">
+        <v>-0.003595642756845887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03768470883259736</v>
+        <v>0.04058319999986196</v>
       </c>
       <c r="C8">
-        <v>0.01165808353513632</v>
+        <v>0.007098216435836272</v>
       </c>
       <c r="D8">
-        <v>-0.05249950642640384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02029049386957063</v>
+      </c>
+      <c r="E8">
+        <v>-0.03482199075145204</v>
+      </c>
+      <c r="F8">
+        <v>-0.05136544384256905</v>
+      </c>
+      <c r="G8">
+        <v>-0.05765523439704909</v>
+      </c>
+      <c r="H8">
+        <v>0.005389534836957398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06678093269175057</v>
+        <v>0.07876831649153465</v>
       </c>
       <c r="C9">
-        <v>0.04215969763384329</v>
+        <v>0.02842446167119981</v>
       </c>
       <c r="D9">
-        <v>-0.0705919117448127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0626914433986944</v>
+      </c>
+      <c r="E9">
+        <v>-0.03725284139731633</v>
+      </c>
+      <c r="F9">
+        <v>-0.03242566806628556</v>
+      </c>
+      <c r="G9">
+        <v>-0.007862443054935605</v>
+      </c>
+      <c r="H9">
+        <v>-0.04606585301413098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02963705804607602</v>
+        <v>0.03442973464587879</v>
       </c>
       <c r="C10">
-        <v>0.03381669235462031</v>
+        <v>0.04204890623038736</v>
       </c>
       <c r="D10">
-        <v>0.1821023831342224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1733355465543253</v>
+      </c>
+      <c r="E10">
+        <v>-0.0460170499721243</v>
+      </c>
+      <c r="F10">
+        <v>-0.04871472592676254</v>
+      </c>
+      <c r="G10">
+        <v>0.0270005341425828</v>
+      </c>
+      <c r="H10">
+        <v>0.05013195919686115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06975583790630817</v>
+        <v>0.0759047245307032</v>
       </c>
       <c r="C11">
-        <v>0.04764398750441123</v>
+        <v>0.02823215588793731</v>
       </c>
       <c r="D11">
-        <v>-0.05544262654591522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06276691013723469</v>
+      </c>
+      <c r="E11">
+        <v>0.002601793545941179</v>
+      </c>
+      <c r="F11">
+        <v>-0.02725192721600869</v>
+      </c>
+      <c r="G11">
+        <v>0.00633349885889608</v>
+      </c>
+      <c r="H11">
+        <v>-0.08576821501812228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05791502219680321</v>
+        <v>0.06707721376709419</v>
       </c>
       <c r="C12">
-        <v>0.05221158898052313</v>
+        <v>0.03732302191479342</v>
       </c>
       <c r="D12">
-        <v>-0.04122917748026521</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04725167407554052</v>
+      </c>
+      <c r="E12">
+        <v>-0.01297204972896178</v>
+      </c>
+      <c r="F12">
+        <v>-0.02004002873161308</v>
+      </c>
+      <c r="G12">
+        <v>-9.016439030822519e-05</v>
+      </c>
+      <c r="H12">
+        <v>-0.04342103658572973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06063817697950514</v>
+        <v>0.06567025543771557</v>
       </c>
       <c r="C13">
-        <v>0.04076694242177402</v>
+        <v>0.02584150711535421</v>
       </c>
       <c r="D13">
-        <v>-0.05938125765294788</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04148421641343536</v>
+      </c>
+      <c r="E13">
+        <v>-0.01519749824158467</v>
+      </c>
+      <c r="F13">
+        <v>-0.004621395223880436</v>
+      </c>
+      <c r="G13">
+        <v>0.01064731856867781</v>
+      </c>
+      <c r="H13">
+        <v>-0.03922593186981613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03376248745179377</v>
+        <v>0.04117600522254679</v>
       </c>
       <c r="C14">
-        <v>0.03207692568365127</v>
+        <v>0.02778182558037239</v>
       </c>
       <c r="D14">
-        <v>-0.000279133139253924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.007044163787928528</v>
+      </c>
+      <c r="E14">
+        <v>-0.03314936708382765</v>
+      </c>
+      <c r="F14">
+        <v>-0.01217270278800097</v>
+      </c>
+      <c r="G14">
+        <v>-0.003666171110553747</v>
+      </c>
+      <c r="H14">
+        <v>-0.05769376830547498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03990428512816319</v>
+        <v>0.03944100690245139</v>
       </c>
       <c r="C15">
-        <v>0.01109980935030078</v>
+        <v>0.003087918711509229</v>
       </c>
       <c r="D15">
-        <v>-0.01740517137615125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004035685680901867</v>
+      </c>
+      <c r="E15">
+        <v>-0.04161930348855843</v>
+      </c>
+      <c r="F15">
+        <v>0.006135863043809074</v>
+      </c>
+      <c r="G15">
+        <v>-0.02460914145495308</v>
+      </c>
+      <c r="H15">
+        <v>-0.03717282678113091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06059837043635763</v>
+        <v>0.07013862814253841</v>
       </c>
       <c r="C16">
-        <v>0.0434850331998064</v>
+        <v>0.02888938134003802</v>
       </c>
       <c r="D16">
-        <v>-0.04477992660818877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06197029648489863</v>
+      </c>
+      <c r="E16">
+        <v>-0.006158962673138958</v>
+      </c>
+      <c r="F16">
+        <v>-0.02430417680964557</v>
+      </c>
+      <c r="G16">
+        <v>0.00478564357016271</v>
+      </c>
+      <c r="H16">
+        <v>-0.05186294375323705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06316324858023002</v>
+        <v>0.06313793150639244</v>
       </c>
       <c r="C20">
-        <v>0.0309044244099456</v>
+        <v>0.01324686704311318</v>
       </c>
       <c r="D20">
-        <v>-0.05025059468297259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04033589385737881</v>
+      </c>
+      <c r="E20">
+        <v>-0.03314374462770135</v>
+      </c>
+      <c r="F20">
+        <v>-0.01806049028234425</v>
+      </c>
+      <c r="G20">
+        <v>-0.01026940461301949</v>
+      </c>
+      <c r="H20">
+        <v>-0.04208883165917492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02365760240398463</v>
+        <v>0.02433518275146016</v>
       </c>
       <c r="C21">
-        <v>-0.00268428163599994</v>
+        <v>-0.01034093757941449</v>
       </c>
       <c r="D21">
-        <v>-0.02365292493360181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02823098085472437</v>
+      </c>
+      <c r="E21">
+        <v>-0.04298973114904815</v>
+      </c>
+      <c r="F21">
+        <v>0.01280251938114037</v>
+      </c>
+      <c r="G21">
+        <v>-0.009567714824294289</v>
+      </c>
+      <c r="H21">
+        <v>0.04878040595828595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07696208119978602</v>
+        <v>0.07264684296143853</v>
       </c>
       <c r="C22">
-        <v>0.06079398911685362</v>
+        <v>0.04003142810652083</v>
       </c>
       <c r="D22">
-        <v>-0.1021084060909282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06806708295834873</v>
+      </c>
+      <c r="E22">
+        <v>-0.5716374066223677</v>
+      </c>
+      <c r="F22">
+        <v>0.2221741689568947</v>
+      </c>
+      <c r="G22">
+        <v>0.06635558020049905</v>
+      </c>
+      <c r="H22">
+        <v>0.1586987644039725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07792978766224365</v>
+        <v>0.07328241186395093</v>
       </c>
       <c r="C23">
-        <v>0.0597048983209288</v>
+        <v>0.03872460636611919</v>
       </c>
       <c r="D23">
-        <v>-0.1037048046372732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06893252262165392</v>
+      </c>
+      <c r="E23">
+        <v>-0.5710191785631835</v>
+      </c>
+      <c r="F23">
+        <v>0.2208499543493649</v>
+      </c>
+      <c r="G23">
+        <v>0.06500217635911627</v>
+      </c>
+      <c r="H23">
+        <v>0.1537407324066207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07088776806916212</v>
+        <v>0.07955680572045193</v>
       </c>
       <c r="C24">
-        <v>0.05213767391369484</v>
+        <v>0.03427348934407698</v>
       </c>
       <c r="D24">
-        <v>-0.05740648882899479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06004667540830298</v>
+      </c>
+      <c r="E24">
+        <v>-0.01580466266949486</v>
+      </c>
+      <c r="F24">
+        <v>-0.03470993748790784</v>
+      </c>
+      <c r="G24">
+        <v>-0.009655447953473728</v>
+      </c>
+      <c r="H24">
+        <v>-0.0571337969621637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07072930771292125</v>
+        <v>0.07759085937346687</v>
       </c>
       <c r="C25">
-        <v>0.05718087778692701</v>
+        <v>0.03882656793911619</v>
       </c>
       <c r="D25">
-        <v>-0.06509006349816346</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05228957710527971</v>
+      </c>
+      <c r="E25">
+        <v>-0.01994419512132892</v>
+      </c>
+      <c r="F25">
+        <v>-0.02449488751905491</v>
+      </c>
+      <c r="G25">
+        <v>-0.01742586072578908</v>
+      </c>
+      <c r="H25">
+        <v>-0.05878799148582082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04411527667918332</v>
+        <v>0.04666768867971779</v>
       </c>
       <c r="C26">
-        <v>0.01056558725435032</v>
+        <v>0.002501030851844614</v>
       </c>
       <c r="D26">
-        <v>-0.01280570295745543</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01982455847007289</v>
+      </c>
+      <c r="E26">
+        <v>-0.05431348718232575</v>
+      </c>
+      <c r="F26">
+        <v>-0.02129591967572555</v>
+      </c>
+      <c r="G26">
+        <v>0.009250182243941285</v>
+      </c>
+      <c r="H26">
+        <v>-0.05001794282447736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05194789609799519</v>
+        <v>0.06108627416477896</v>
       </c>
       <c r="C28">
-        <v>0.07461379847797105</v>
+        <v>0.08487735846490652</v>
       </c>
       <c r="D28">
-        <v>0.3144585661320902</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3077425457180904</v>
+      </c>
+      <c r="E28">
+        <v>-0.02568555373637513</v>
+      </c>
+      <c r="F28">
+        <v>-0.05519571029954207</v>
+      </c>
+      <c r="G28">
+        <v>-0.03487177061505164</v>
+      </c>
+      <c r="H28">
+        <v>0.04004261063370691</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03971756467202629</v>
+        <v>0.04796887956452416</v>
       </c>
       <c r="C29">
-        <v>0.03118892725175884</v>
+        <v>0.02603345035437694</v>
       </c>
       <c r="D29">
-        <v>-0.002867811789856662</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006398408204513969</v>
+      </c>
+      <c r="E29">
+        <v>-0.05553584350796333</v>
+      </c>
+      <c r="F29">
+        <v>-0.0006602114436383564</v>
+      </c>
+      <c r="G29">
+        <v>0.01269156998952844</v>
+      </c>
+      <c r="H29">
+        <v>-0.07853425599162077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.126289892730237</v>
+        <v>0.1322455354416144</v>
       </c>
       <c r="C30">
-        <v>0.09590811151435771</v>
+        <v>0.06547210282524858</v>
       </c>
       <c r="D30">
-        <v>-0.1135344495186708</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06828910619805242</v>
+      </c>
+      <c r="E30">
+        <v>-0.08359445606980793</v>
+      </c>
+      <c r="F30">
+        <v>0.02088879232202574</v>
+      </c>
+      <c r="G30">
+        <v>-0.07880575951176855</v>
+      </c>
+      <c r="H30">
+        <v>0.04183281891273626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04209240371360649</v>
+        <v>0.04853755020833309</v>
       </c>
       <c r="C31">
-        <v>0.0227541225502705</v>
+        <v>0.01504583923758132</v>
       </c>
       <c r="D31">
-        <v>-0.02780086332502384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02708074708737333</v>
+      </c>
+      <c r="E31">
+        <v>-0.02845615832523174</v>
+      </c>
+      <c r="F31">
+        <v>-0.008910304884742943</v>
+      </c>
+      <c r="G31">
+        <v>0.03117884251433315</v>
+      </c>
+      <c r="H31">
+        <v>-0.06345582798996449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03767897249965532</v>
+        <v>0.03951345806543233</v>
       </c>
       <c r="C32">
-        <v>0.02477141949805177</v>
+        <v>0.0187604976002055</v>
       </c>
       <c r="D32">
-        <v>-0.02789953080500406</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01120052333573804</v>
+      </c>
+      <c r="E32">
+        <v>-0.06963631066858035</v>
+      </c>
+      <c r="F32">
+        <v>0.01762357010020535</v>
+      </c>
+      <c r="G32">
+        <v>-0.02263008790843597</v>
+      </c>
+      <c r="H32">
+        <v>-0.07164845490459984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0819410772710511</v>
+        <v>0.09512704986703724</v>
       </c>
       <c r="C33">
-        <v>0.04418631791142479</v>
+        <v>0.02741817359018944</v>
       </c>
       <c r="D33">
-        <v>-0.06490963400009636</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0479827784253117</v>
+      </c>
+      <c r="E33">
+        <v>-0.01510347808131806</v>
+      </c>
+      <c r="F33">
+        <v>-0.003516462652471444</v>
+      </c>
+      <c r="G33">
+        <v>0.008565725498518723</v>
+      </c>
+      <c r="H33">
+        <v>-0.05756131244822014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05605313414389028</v>
+        <v>0.06213553643805657</v>
       </c>
       <c r="C34">
-        <v>0.02890859292746052</v>
+        <v>0.01440477643179419</v>
       </c>
       <c r="D34">
-        <v>-0.05540697686563036</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05409060465817334</v>
+      </c>
+      <c r="E34">
+        <v>-0.009033936795622862</v>
+      </c>
+      <c r="F34">
+        <v>-0.01772714232855706</v>
+      </c>
+      <c r="G34">
+        <v>0.0006512434157674856</v>
+      </c>
+      <c r="H34">
+        <v>-0.05683084367408021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03668889406726674</v>
+        <v>0.03946105504451423</v>
       </c>
       <c r="C35">
-        <v>0.008874407407792858</v>
+        <v>0.003606132722248367</v>
       </c>
       <c r="D35">
-        <v>-0.007230830555950418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008658022522707039</v>
+      </c>
+      <c r="E35">
+        <v>-0.01960766792733418</v>
+      </c>
+      <c r="F35">
+        <v>0.01774574791851046</v>
+      </c>
+      <c r="G35">
+        <v>0.01425676569214403</v>
+      </c>
+      <c r="H35">
+        <v>-0.01801857737440307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02118938131954362</v>
+        <v>0.02791844624685266</v>
       </c>
       <c r="C36">
-        <v>0.01770880256836427</v>
+        <v>0.01383138829693328</v>
       </c>
       <c r="D36">
-        <v>-0.02092952899587814</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01545609582265671</v>
+      </c>
+      <c r="E36">
+        <v>-0.0439336737219117</v>
+      </c>
+      <c r="F36">
+        <v>-0.01291304266961124</v>
+      </c>
+      <c r="G36">
+        <v>0.01068455359756836</v>
+      </c>
+      <c r="H36">
+        <v>-0.04422610522959314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03835032904786354</v>
+        <v>0.04379332985236194</v>
       </c>
       <c r="C38">
-        <v>0.003590003303610634</v>
+        <v>-0.0008346463062281962</v>
       </c>
       <c r="D38">
-        <v>-0.01866192099385323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01765953685727284</v>
+      </c>
+      <c r="E38">
+        <v>-0.05303176017647102</v>
+      </c>
+      <c r="F38">
+        <v>0.0138169923501069</v>
+      </c>
+      <c r="G38">
+        <v>-0.006288310552411887</v>
+      </c>
+      <c r="H38">
+        <v>-0.03273497569900644</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09135916673541251</v>
+        <v>0.1031780668511738</v>
       </c>
       <c r="C39">
-        <v>0.07473434268042148</v>
+        <v>0.05298796810955846</v>
       </c>
       <c r="D39">
-        <v>-0.05672071719481098</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05856339758847689</v>
+      </c>
+      <c r="E39">
+        <v>0.001089835588627837</v>
+      </c>
+      <c r="F39">
+        <v>-0.004124494727690141</v>
+      </c>
+      <c r="G39">
+        <v>-0.03041959071252425</v>
+      </c>
+      <c r="H39">
+        <v>-0.04838257633864957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07462756093081964</v>
+        <v>0.07158837655986776</v>
       </c>
       <c r="C40">
-        <v>0.04170655597659297</v>
+        <v>0.02025314346511187</v>
       </c>
       <c r="D40">
-        <v>0.004557595873535867</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01217384135725269</v>
+      </c>
+      <c r="E40">
+        <v>-0.02178345651449136</v>
+      </c>
+      <c r="F40">
+        <v>0.05610729372327766</v>
+      </c>
+      <c r="G40">
+        <v>-0.0566301632381843</v>
+      </c>
+      <c r="H40">
+        <v>0.103601729798255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04066340664782612</v>
+        <v>0.04325216902873519</v>
       </c>
       <c r="C41">
-        <v>0.005893510866613051</v>
+        <v>-0.001755598370972262</v>
       </c>
       <c r="D41">
-        <v>-0.03901860567198633</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03538460793800834</v>
+      </c>
+      <c r="E41">
+        <v>-0.005679328628956634</v>
+      </c>
+      <c r="F41">
+        <v>0.01645648769198737</v>
+      </c>
+      <c r="G41">
+        <v>-0.008470242342667215</v>
+      </c>
+      <c r="H41">
+        <v>-0.03338060874916864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0469233191114309</v>
+        <v>0.05724551859694372</v>
       </c>
       <c r="C43">
-        <v>0.0261251198473754</v>
+        <v>0.01772426249686717</v>
       </c>
       <c r="D43">
-        <v>-0.01891585058264101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02656477049023253</v>
+      </c>
+      <c r="E43">
+        <v>-0.02031742227302635</v>
+      </c>
+      <c r="F43">
+        <v>-0.00946190939497428</v>
+      </c>
+      <c r="G43">
+        <v>0.02106731381597733</v>
+      </c>
+      <c r="H43">
+        <v>-0.05123949326773899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09302646967698945</v>
+        <v>0.09575645188279401</v>
       </c>
       <c r="C44">
-        <v>0.09384036524600928</v>
+        <v>0.06625809399907789</v>
       </c>
       <c r="D44">
-        <v>-0.08181594948921007</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05991745481428244</v>
+      </c>
+      <c r="E44">
+        <v>-0.09195975759135314</v>
+      </c>
+      <c r="F44">
+        <v>-0.04042662487495302</v>
+      </c>
+      <c r="G44">
+        <v>-0.03077544325386031</v>
+      </c>
+      <c r="H44">
+        <v>-0.0179471550947204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02459233188962843</v>
+        <v>0.03320348640162551</v>
       </c>
       <c r="C46">
-        <v>0.01457232589988693</v>
+        <v>0.01193290215385259</v>
       </c>
       <c r="D46">
-        <v>-0.02041188850851161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03216508692442351</v>
+      </c>
+      <c r="E46">
+        <v>-0.02967890554402437</v>
+      </c>
+      <c r="F46">
+        <v>-0.01485208902178358</v>
+      </c>
+      <c r="G46">
+        <v>0.004528169451424004</v>
+      </c>
+      <c r="H46">
+        <v>-0.03852992582939451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03023071899168988</v>
+        <v>0.03814683994112997</v>
       </c>
       <c r="C47">
-        <v>0.02478911884730318</v>
+        <v>0.02037219712562973</v>
       </c>
       <c r="D47">
-        <v>-0.01073558431633883</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009809733029906273</v>
+      </c>
+      <c r="E47">
+        <v>-0.05081149134952555</v>
+      </c>
+      <c r="F47">
+        <v>-0.007052701374472911</v>
+      </c>
+      <c r="G47">
+        <v>0.04398155812963107</v>
+      </c>
+      <c r="H47">
+        <v>-0.0227957320585966</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03140454449678017</v>
+        <v>0.03710721125612756</v>
       </c>
       <c r="C48">
-        <v>0.01794360171798579</v>
+        <v>0.01180913703912396</v>
       </c>
       <c r="D48">
-        <v>-0.03078485844401151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01925817194061265</v>
+      </c>
+      <c r="E48">
+        <v>-0.04384455449292315</v>
+      </c>
+      <c r="F48">
+        <v>-0.001477064597696532</v>
+      </c>
+      <c r="G48">
+        <v>-0.01064853421319303</v>
+      </c>
+      <c r="H48">
+        <v>-0.04039021178839432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1628365163105006</v>
+        <v>0.190264630617161</v>
       </c>
       <c r="C49">
-        <v>0.06293031360326067</v>
+        <v>0.03639239713565603</v>
       </c>
       <c r="D49">
-        <v>0.0189906734145246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02736954566389673</v>
+      </c>
+      <c r="E49">
+        <v>0.1507803086679367</v>
+      </c>
+      <c r="F49">
+        <v>-0.0779365200876512</v>
+      </c>
+      <c r="G49">
+        <v>0.04763225962851039</v>
+      </c>
+      <c r="H49">
+        <v>0.2373533585995467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03899828938671292</v>
+        <v>0.04590603561715979</v>
       </c>
       <c r="C50">
-        <v>0.02649710102728468</v>
+        <v>0.01919935614363803</v>
       </c>
       <c r="D50">
-        <v>-0.03711297462422159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03097198748657262</v>
+      </c>
+      <c r="E50">
+        <v>-0.05119827031157115</v>
+      </c>
+      <c r="F50">
+        <v>-0.01058695617216628</v>
+      </c>
+      <c r="G50">
+        <v>0.02495398009158355</v>
+      </c>
+      <c r="H50">
+        <v>-0.06074665476792465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02526644424407726</v>
+        <v>0.02965570066000696</v>
       </c>
       <c r="C51">
-        <v>0.008542393652533413</v>
+        <v>0.004245283604279306</v>
       </c>
       <c r="D51">
-        <v>-0.01599472609815457</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01358701722926164</v>
+      </c>
+      <c r="E51">
+        <v>-0.01216414679922511</v>
+      </c>
+      <c r="F51">
+        <v>-0.01875429447418443</v>
+      </c>
+      <c r="G51">
+        <v>0.0003112145003860781</v>
+      </c>
+      <c r="H51">
+        <v>0.002662590235377038</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1519438662968085</v>
+        <v>0.1626052431668576</v>
       </c>
       <c r="C53">
-        <v>0.07978828560236843</v>
+        <v>0.05266865695141399</v>
       </c>
       <c r="D53">
-        <v>-0.02458901444108197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01861236567647755</v>
+      </c>
+      <c r="E53">
+        <v>0.02730351630043177</v>
+      </c>
+      <c r="F53">
+        <v>-0.01778756355997723</v>
+      </c>
+      <c r="G53">
+        <v>0.02776635012408671</v>
+      </c>
+      <c r="H53">
+        <v>-0.1773146708444936</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05468141549755207</v>
+        <v>0.05751307883797428</v>
       </c>
       <c r="C54">
-        <v>0.02682137262607245</v>
+        <v>0.01535856433610498</v>
       </c>
       <c r="D54">
-        <v>-0.02255958328718221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01761645966129561</v>
+      </c>
+      <c r="E54">
+        <v>-0.05162640445531624</v>
+      </c>
+      <c r="F54">
+        <v>-0.004901748890945559</v>
+      </c>
+      <c r="G54">
+        <v>-0.01047780746960015</v>
+      </c>
+      <c r="H54">
+        <v>-0.04708526050354873</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09925188981508956</v>
+        <v>0.1035712646572399</v>
       </c>
       <c r="C55">
-        <v>0.05472253082199457</v>
+        <v>0.03457267475183818</v>
       </c>
       <c r="D55">
-        <v>-0.02519809170618481</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02232031046407643</v>
+      </c>
+      <c r="E55">
+        <v>-0.01835578971739729</v>
+      </c>
+      <c r="F55">
+        <v>-0.01526146054987104</v>
+      </c>
+      <c r="G55">
+        <v>0.02066427332553165</v>
+      </c>
+      <c r="H55">
+        <v>-0.15177635527556</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1480017292298519</v>
+        <v>0.1609431992121093</v>
       </c>
       <c r="C56">
-        <v>0.09151454935262199</v>
+        <v>0.0639004569719944</v>
       </c>
       <c r="D56">
-        <v>-0.02023379066453712</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01794933848472862</v>
+      </c>
+      <c r="E56">
+        <v>0.02535655405980708</v>
+      </c>
+      <c r="F56">
+        <v>-0.03726342323430273</v>
+      </c>
+      <c r="G56">
+        <v>0.0387460713445799</v>
+      </c>
+      <c r="H56">
+        <v>-0.1774615243299976</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1269162624522014</v>
+        <v>0.09780632868832943</v>
       </c>
       <c r="C58">
-        <v>0.007734624242025564</v>
+        <v>-0.03574510493130476</v>
       </c>
       <c r="D58">
-        <v>-0.02917536274919643</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04106090132753892</v>
+      </c>
+      <c r="E58">
+        <v>-0.1700100775541969</v>
+      </c>
+      <c r="F58">
+        <v>0.01210512067559766</v>
+      </c>
+      <c r="G58">
+        <v>0.02677859510054317</v>
+      </c>
+      <c r="H58">
+        <v>0.2390587825297392</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1193170413288307</v>
+        <v>0.1363530889080913</v>
       </c>
       <c r="C59">
-        <v>0.07849626263602028</v>
+        <v>0.08478254624387271</v>
       </c>
       <c r="D59">
-        <v>0.3526893333448025</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3652631420182088</v>
+      </c>
+      <c r="E59">
+        <v>-0.02423760319785722</v>
+      </c>
+      <c r="F59">
+        <v>-0.02054544949636376</v>
+      </c>
+      <c r="G59">
+        <v>0.02504930684250645</v>
+      </c>
+      <c r="H59">
+        <v>0.002923044418040555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2013397823010022</v>
+        <v>0.2320150010405829</v>
       </c>
       <c r="C60">
-        <v>0.1036563016541022</v>
+        <v>0.06868819006560548</v>
       </c>
       <c r="D60">
-        <v>-0.007624139796115986</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03811306928381041</v>
+      </c>
+      <c r="E60">
+        <v>0.09545015317798973</v>
+      </c>
+      <c r="F60">
+        <v>-0.06714749065782505</v>
+      </c>
+      <c r="G60">
+        <v>-0.02960656119661434</v>
+      </c>
+      <c r="H60">
+        <v>0.1510438807235137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07984363938138833</v>
+        <v>0.0891493199307154</v>
       </c>
       <c r="C61">
-        <v>0.05372239696328274</v>
+        <v>0.03861766784272173</v>
       </c>
       <c r="D61">
-        <v>-0.04260375574344245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03999912311102411</v>
+      </c>
+      <c r="E61">
+        <v>0.003444574589476536</v>
+      </c>
+      <c r="F61">
+        <v>-0.002947559660069248</v>
+      </c>
+      <c r="G61">
+        <v>0.004104662515070657</v>
+      </c>
+      <c r="H61">
+        <v>-0.06534487142665657</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1292266647350955</v>
+        <v>0.1400275240715828</v>
       </c>
       <c r="C62">
-        <v>0.06642264211216033</v>
+        <v>0.04193633595280596</v>
       </c>
       <c r="D62">
-        <v>-0.03186544964396378</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03032536875750224</v>
+      </c>
+      <c r="E62">
+        <v>0.06119902683436745</v>
+      </c>
+      <c r="F62">
+        <v>-0.0168460205579318</v>
+      </c>
+      <c r="G62">
+        <v>-0.00432025581451475</v>
+      </c>
+      <c r="H62">
+        <v>-0.1988271925382877</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05050175703974889</v>
+        <v>0.05010172177216549</v>
       </c>
       <c r="C63">
-        <v>0.02461846081049764</v>
+        <v>0.01271367685815285</v>
       </c>
       <c r="D63">
-        <v>-0.0219408044819436</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0208598540842255</v>
+      </c>
+      <c r="E63">
+        <v>-0.05326430821342758</v>
+      </c>
+      <c r="F63">
+        <v>0.01411980999063238</v>
+      </c>
+      <c r="G63">
+        <v>-0.02000121409981792</v>
+      </c>
+      <c r="H63">
+        <v>-0.05692615451510335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1046002434193143</v>
+        <v>0.1089960870045991</v>
       </c>
       <c r="C64">
-        <v>0.02415985335745472</v>
+        <v>0.004414955729007135</v>
       </c>
       <c r="D64">
-        <v>-0.06028536086057932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04124743542167557</v>
+      </c>
+      <c r="E64">
+        <v>-0.04703910660606154</v>
+      </c>
+      <c r="F64">
+        <v>-0.04242230743350616</v>
+      </c>
+      <c r="G64">
+        <v>-0.04527323093035651</v>
+      </c>
+      <c r="H64">
+        <v>-0.0624538057270988</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1220865497836851</v>
+        <v>0.1264597631282299</v>
       </c>
       <c r="C65">
-        <v>0.06178215396410462</v>
+        <v>0.03925344810082215</v>
       </c>
       <c r="D65">
-        <v>0.01892201223706439</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.002383281254490944</v>
+      </c>
+      <c r="E65">
+        <v>-0.01152414692706142</v>
+      </c>
+      <c r="F65">
+        <v>-0.05400730769453756</v>
+      </c>
+      <c r="G65">
+        <v>-0.06310102570828065</v>
+      </c>
+      <c r="H65">
+        <v>0.1361456151894345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1434920981817122</v>
+        <v>0.1552823575750463</v>
       </c>
       <c r="C66">
-        <v>0.08071961626890534</v>
+        <v>0.05032155267277353</v>
       </c>
       <c r="D66">
-        <v>-0.1098150270873127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09321212255206703</v>
+      </c>
+      <c r="E66">
+        <v>0.03193523112038166</v>
+      </c>
+      <c r="F66">
+        <v>-0.01774127215067498</v>
+      </c>
+      <c r="G66">
+        <v>-0.04150816681243465</v>
+      </c>
+      <c r="H66">
+        <v>-0.1224413488352015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07064098866398674</v>
+        <v>0.08323624718027325</v>
       </c>
       <c r="C67">
-        <v>0.01381988954630735</v>
+        <v>0.005500527911927239</v>
       </c>
       <c r="D67">
-        <v>-0.02427834083646458</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03127582991623079</v>
+      </c>
+      <c r="E67">
+        <v>-0.02255002010073306</v>
+      </c>
+      <c r="F67">
+        <v>-0.01698168685101255</v>
+      </c>
+      <c r="G67">
+        <v>0.01230713074543006</v>
+      </c>
+      <c r="H67">
+        <v>-0.03476889896657803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05856857705168991</v>
+        <v>0.05708021664763328</v>
       </c>
       <c r="C68">
-        <v>0.05022296459261296</v>
+        <v>0.05690786126896505</v>
       </c>
       <c r="D68">
-        <v>0.25276790793197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2695831311303403</v>
+      </c>
+      <c r="E68">
+        <v>-0.03624416233827191</v>
+      </c>
+      <c r="F68">
+        <v>-0.01625003172789886</v>
+      </c>
+      <c r="G68">
+        <v>0.01481368266374249</v>
+      </c>
+      <c r="H68">
+        <v>-0.003466414730549941</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05242508555775625</v>
+        <v>0.0533572558807973</v>
       </c>
       <c r="C69">
-        <v>0.01831472396325216</v>
+        <v>0.00611063062176716</v>
       </c>
       <c r="D69">
-        <v>-0.01686544110433645</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01482172938788046</v>
+      </c>
+      <c r="E69">
+        <v>-0.02508662713681148</v>
+      </c>
+      <c r="F69">
+        <v>0.009390172022479621</v>
+      </c>
+      <c r="G69">
+        <v>0.02279588860211804</v>
+      </c>
+      <c r="H69">
+        <v>-0.04766366364095181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004706083724212631</v>
+        <v>0.0271303662250119</v>
       </c>
       <c r="C70">
-        <v>-0.006259533444832424</v>
+        <v>-0.0009253089654443899</v>
       </c>
       <c r="D70">
-        <v>0.0003846455212668579</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.004132933652224897</v>
+      </c>
+      <c r="E70">
+        <v>0.02368563492317999</v>
+      </c>
+      <c r="F70">
+        <v>-0.02008592662106141</v>
+      </c>
+      <c r="G70">
+        <v>0.02231865992291426</v>
+      </c>
+      <c r="H70">
+        <v>0.03270050363457797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05893246100567556</v>
+        <v>0.05993628490728854</v>
       </c>
       <c r="C71">
-        <v>0.05074910359747411</v>
+        <v>0.06117864170910539</v>
       </c>
       <c r="D71">
-        <v>0.2949725892781067</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2959263530784161</v>
+      </c>
+      <c r="E71">
+        <v>-0.03183391472927583</v>
+      </c>
+      <c r="F71">
+        <v>-0.04399040983561443</v>
+      </c>
+      <c r="G71">
+        <v>0.004062851163797181</v>
+      </c>
+      <c r="H71">
+        <v>-0.00950497926870115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1376542599356567</v>
+        <v>0.145860316078672</v>
       </c>
       <c r="C72">
-        <v>0.06382932082278973</v>
+        <v>0.03631935657125807</v>
       </c>
       <c r="D72">
-        <v>-0.0002574145512253121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008378567343115567</v>
+      </c>
+      <c r="E72">
+        <v>0.1092507608160891</v>
+      </c>
+      <c r="F72">
+        <v>0.1579295759253385</v>
+      </c>
+      <c r="G72">
+        <v>-0.1222035008086051</v>
+      </c>
+      <c r="H72">
+        <v>-0.02156648569262723</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2738769659671128</v>
+        <v>0.2880498382050551</v>
       </c>
       <c r="C73">
-        <v>0.1135739271981554</v>
+        <v>0.04838654521180372</v>
       </c>
       <c r="D73">
-        <v>-0.04401592333083264</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09667082065762669</v>
+      </c>
+      <c r="E73">
+        <v>0.2150135968231392</v>
+      </c>
+      <c r="F73">
+        <v>-0.1244273510387559</v>
+      </c>
+      <c r="G73">
+        <v>0.1269105821731865</v>
+      </c>
+      <c r="H73">
+        <v>0.4892858092810258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07971529120018946</v>
+        <v>0.09266443858807566</v>
       </c>
       <c r="C74">
-        <v>0.077395796790308</v>
+        <v>0.06033307854951189</v>
       </c>
       <c r="D74">
-        <v>-0.01309552040753868</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02823135822897435</v>
+      </c>
+      <c r="E74">
+        <v>0.005827633716182809</v>
+      </c>
+      <c r="F74">
+        <v>0.0007253354791654554</v>
+      </c>
+      <c r="G74">
+        <v>0.06286960199777217</v>
+      </c>
+      <c r="H74">
+        <v>-0.1166699909314101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0945364195495326</v>
+        <v>0.0996663113677214</v>
       </c>
       <c r="C75">
-        <v>0.05508310909600007</v>
+        <v>0.02977196117934039</v>
       </c>
       <c r="D75">
-        <v>-0.007820016001022612</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01483811420877703</v>
+      </c>
+      <c r="E75">
+        <v>-0.007561008855617894</v>
+      </c>
+      <c r="F75">
+        <v>-0.02585536090284377</v>
+      </c>
+      <c r="G75">
+        <v>0.02783866587376016</v>
+      </c>
+      <c r="H75">
+        <v>-0.1149380776631473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1310988806145536</v>
+        <v>0.140862676656387</v>
       </c>
       <c r="C76">
-        <v>0.08472836876182038</v>
+        <v>0.05772588172434553</v>
       </c>
       <c r="D76">
-        <v>-0.05319348544436685</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0505420365305342</v>
+      </c>
+      <c r="E76">
+        <v>-0.02728246871874265</v>
+      </c>
+      <c r="F76">
+        <v>-0.04419876381015183</v>
+      </c>
+      <c r="G76">
+        <v>0.02721697603809369</v>
+      </c>
+      <c r="H76">
+        <v>-0.2004889445785477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1122597657878199</v>
+        <v>0.1074994967807137</v>
       </c>
       <c r="C77">
-        <v>0.0204397330656872</v>
+        <v>-0.007855161041653395</v>
       </c>
       <c r="D77">
-        <v>-0.0531041929556962</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0210693046199651</v>
+      </c>
+      <c r="E77">
+        <v>-0.03774967974687737</v>
+      </c>
+      <c r="F77">
+        <v>-0.1098169525340067</v>
+      </c>
+      <c r="G77">
+        <v>-0.8944039016625039</v>
+      </c>
+      <c r="H77">
+        <v>0.0602510344554962</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09927636154104699</v>
+        <v>0.1390679277083831</v>
       </c>
       <c r="C78">
-        <v>0.0408645824980483</v>
+        <v>0.03436556162546897</v>
       </c>
       <c r="D78">
-        <v>-0.08269861411487753</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08389289730225688</v>
+      </c>
+      <c r="E78">
+        <v>-0.05574287598312681</v>
+      </c>
+      <c r="F78">
+        <v>-0.03784986521531949</v>
+      </c>
+      <c r="G78">
+        <v>-0.08901279883698064</v>
+      </c>
+      <c r="H78">
+        <v>0.04620381311723122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1466713894049695</v>
+        <v>0.1515780339506293</v>
       </c>
       <c r="C79">
-        <v>0.07680841509821859</v>
+        <v>0.04393809236777223</v>
       </c>
       <c r="D79">
-        <v>-0.02922346820988961</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0270696734349966</v>
+      </c>
+      <c r="E79">
+        <v>0.01195272664493802</v>
+      </c>
+      <c r="F79">
+        <v>-0.01913566074731938</v>
+      </c>
+      <c r="G79">
+        <v>0.04452443211753625</v>
+      </c>
+      <c r="H79">
+        <v>-0.1736510553542364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04571949371615042</v>
+        <v>0.04326299290615163</v>
       </c>
       <c r="C80">
-        <v>0.01549079350422452</v>
+        <v>0.00564428099022602</v>
       </c>
       <c r="D80">
-        <v>-0.02910700080887998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01911115264893666</v>
+      </c>
+      <c r="E80">
+        <v>0.008689121803293965</v>
+      </c>
+      <c r="F80">
+        <v>0.005810041904061812</v>
+      </c>
+      <c r="G80">
+        <v>0.03540017631456623</v>
+      </c>
+      <c r="H80">
+        <v>-0.03230641779432435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1150363339045739</v>
+        <v>0.1202175280218744</v>
       </c>
       <c r="C81">
-        <v>0.0647105711515252</v>
+        <v>0.03855890274706987</v>
       </c>
       <c r="D81">
-        <v>-0.03073464192832412</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02339751483830576</v>
+      </c>
+      <c r="E81">
+        <v>-0.02437968389196888</v>
+      </c>
+      <c r="F81">
+        <v>-0.01436330484377375</v>
+      </c>
+      <c r="G81">
+        <v>0.06697828064175969</v>
+      </c>
+      <c r="H81">
+        <v>-0.1472769248582179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1314368631886438</v>
+        <v>0.1319923883495843</v>
       </c>
       <c r="C82">
-        <v>0.08110976009469342</v>
+        <v>0.05180641733840905</v>
       </c>
       <c r="D82">
-        <v>-0.01709580290840168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02761001618202168</v>
+      </c>
+      <c r="E82">
+        <v>0.01437936188705182</v>
+      </c>
+      <c r="F82">
+        <v>-0.05615800011261633</v>
+      </c>
+      <c r="G82">
+        <v>0.0602213068689676</v>
+      </c>
+      <c r="H82">
+        <v>-0.209546311615225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07733382577985018</v>
+        <v>0.08794898363391777</v>
       </c>
       <c r="C83">
-        <v>-0.007307083511451365</v>
+        <v>-0.02236013564113073</v>
       </c>
       <c r="D83">
-        <v>-0.0269114027248904</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03439215955095418</v>
+      </c>
+      <c r="E83">
+        <v>-0.02492726697212175</v>
+      </c>
+      <c r="F83">
+        <v>-0.05247670576892552</v>
+      </c>
+      <c r="G83">
+        <v>0.07461277750533316</v>
+      </c>
+      <c r="H83">
+        <v>0.06680045474163163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02640136282079783</v>
+        <v>0.03622762981342407</v>
       </c>
       <c r="C84">
-        <v>0.02629202290505341</v>
+        <v>0.02174260895829566</v>
       </c>
       <c r="D84">
-        <v>-0.03154535334718717</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03105286367007986</v>
+      </c>
+      <c r="E84">
+        <v>-0.02349348040004321</v>
+      </c>
+      <c r="F84">
+        <v>0.05094766008500989</v>
+      </c>
+      <c r="G84">
+        <v>0.06305725410532566</v>
+      </c>
+      <c r="H84">
+        <v>0.003051605134312124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1204946492335029</v>
+        <v>0.1206097565086429</v>
       </c>
       <c r="C85">
-        <v>0.05820305044895267</v>
+        <v>0.02900556312117817</v>
       </c>
       <c r="D85">
-        <v>-0.01799199134503662</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02317379437891686</v>
+      </c>
+      <c r="E85">
+        <v>-0.02446547676946317</v>
+      </c>
+      <c r="F85">
+        <v>-0.03988416932378749</v>
+      </c>
+      <c r="G85">
+        <v>0.03599930505473484</v>
+      </c>
+      <c r="H85">
+        <v>-0.1507789991591056</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0506815114639044</v>
+        <v>0.05824815787692309</v>
       </c>
       <c r="C86">
-        <v>0.03127592241692136</v>
+        <v>0.02013643783453868</v>
       </c>
       <c r="D86">
-        <v>-0.02175221199093503</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02429648845776464</v>
+      </c>
+      <c r="E86">
+        <v>-0.06640195687883484</v>
+      </c>
+      <c r="F86">
+        <v>-0.02616077594340592</v>
+      </c>
+      <c r="G86">
+        <v>0.02403683567511154</v>
+      </c>
+      <c r="H86">
+        <v>0.01255485856073893</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1184916813742274</v>
+        <v>0.1219489449122813</v>
       </c>
       <c r="C87">
-        <v>0.07245509967718904</v>
+        <v>0.0386213282612653</v>
       </c>
       <c r="D87">
-        <v>-0.07210780844963253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0722050007513873</v>
+      </c>
+      <c r="E87">
+        <v>-0.02571031011521513</v>
+      </c>
+      <c r="F87">
+        <v>0.003308063310056902</v>
+      </c>
+      <c r="G87">
+        <v>-0.1274439753450542</v>
+      </c>
+      <c r="H87">
+        <v>0.03874762562250651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0530963061286476</v>
+        <v>0.06038127825305013</v>
       </c>
       <c r="C88">
-        <v>0.02933063068435447</v>
+        <v>0.01883373611893266</v>
       </c>
       <c r="D88">
-        <v>-0.01943437591096146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0327011693995554</v>
+      </c>
+      <c r="E88">
+        <v>-0.02144023407545934</v>
+      </c>
+      <c r="F88">
+        <v>-0.005662373578199515</v>
+      </c>
+      <c r="G88">
+        <v>-0.003197354647470959</v>
+      </c>
+      <c r="H88">
+        <v>-0.05457938642525929</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08368604533967179</v>
+        <v>0.09288842009139155</v>
       </c>
       <c r="C89">
-        <v>0.06865788502845023</v>
+        <v>0.0792805190037274</v>
       </c>
       <c r="D89">
-        <v>0.3271323463940354</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3477904274923253</v>
+      </c>
+      <c r="E89">
+        <v>-0.06967029495618852</v>
+      </c>
+      <c r="F89">
+        <v>-0.08333637123307891</v>
+      </c>
+      <c r="G89">
+        <v>0.02566978810598494</v>
+      </c>
+      <c r="H89">
+        <v>-0.01150159255820007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07464103391580243</v>
+        <v>0.07891406222226166</v>
       </c>
       <c r="C90">
-        <v>0.06098739179508528</v>
+        <v>0.06782278686172735</v>
       </c>
       <c r="D90">
-        <v>0.3215047127727044</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3072596681430023</v>
+      </c>
+      <c r="E90">
+        <v>-0.06125898412951782</v>
+      </c>
+      <c r="F90">
+        <v>-0.0006290410514820345</v>
+      </c>
+      <c r="G90">
+        <v>0.00251633219416435</v>
+      </c>
+      <c r="H90">
+        <v>-0.00391819822474733</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08618119956854058</v>
+        <v>0.08976378353786751</v>
       </c>
       <c r="C91">
-        <v>0.05683924896405831</v>
+        <v>0.03454261548882104</v>
       </c>
       <c r="D91">
-        <v>-0.03255688204011633</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03121934420153996</v>
+      </c>
+      <c r="E91">
+        <v>-0.01459627517331861</v>
+      </c>
+      <c r="F91">
+        <v>-0.006327170995702507</v>
+      </c>
+      <c r="G91">
+        <v>0.05445252213495764</v>
+      </c>
+      <c r="H91">
+        <v>-0.07573874231434578</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07491424224690521</v>
+        <v>0.07809030115909812</v>
       </c>
       <c r="C92">
-        <v>0.07229734116331248</v>
+        <v>0.08054213494826945</v>
       </c>
       <c r="D92">
-        <v>0.3435297509843031</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3450949836835033</v>
+      </c>
+      <c r="E92">
+        <v>-0.04517968579625436</v>
+      </c>
+      <c r="F92">
+        <v>-0.04091610391388269</v>
+      </c>
+      <c r="G92">
+        <v>-0.01048270198473217</v>
+      </c>
+      <c r="H92">
+        <v>-0.01577813170860642</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06506786897663053</v>
+        <v>0.07558774123623678</v>
       </c>
       <c r="C93">
-        <v>0.06457645595027754</v>
+        <v>0.07822381933594159</v>
       </c>
       <c r="D93">
-        <v>0.3138990282876344</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.305701907159608</v>
+      </c>
+      <c r="E93">
+        <v>-0.03715412681942994</v>
+      </c>
+      <c r="F93">
+        <v>-0.03860880492652045</v>
+      </c>
+      <c r="G93">
+        <v>-0.0152299983296018</v>
+      </c>
+      <c r="H93">
+        <v>0.008444427997410625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1319589064942031</v>
+        <v>0.1265196378580275</v>
       </c>
       <c r="C94">
-        <v>0.05684245283642646</v>
+        <v>0.02216384712733845</v>
       </c>
       <c r="D94">
-        <v>-0.04645620739207736</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0481383659940421</v>
+      </c>
+      <c r="E94">
+        <v>0.003948778461557776</v>
+      </c>
+      <c r="F94">
+        <v>-0.02141828521118456</v>
+      </c>
+      <c r="G94">
+        <v>0.06335224506005549</v>
+      </c>
+      <c r="H94">
+        <v>-0.0948756654975942</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1202093219438324</v>
+        <v>0.1267349931680466</v>
       </c>
       <c r="C95">
-        <v>0.03234183164933713</v>
+        <v>0.003858493664513164</v>
       </c>
       <c r="D95">
-        <v>-0.06032721846569378</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07208202645352177</v>
+      </c>
+      <c r="E95">
+        <v>-0.01518294837129991</v>
+      </c>
+      <c r="F95">
+        <v>-0.04030169103606392</v>
+      </c>
+      <c r="G95">
+        <v>-0.02679441576701005</v>
+      </c>
+      <c r="H95">
+        <v>0.06245476394923853</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.211298047120409</v>
+        <v>0.2097943398279624</v>
       </c>
       <c r="C97">
-        <v>0.0454034398718061</v>
+        <v>0.001846581690591647</v>
       </c>
       <c r="D97">
-        <v>0.08894395339868831</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.09066501830780546</v>
+      </c>
+      <c r="E97">
+        <v>0.2987174926172055</v>
+      </c>
+      <c r="F97">
+        <v>0.8739508201034606</v>
+      </c>
+      <c r="G97">
+        <v>-0.07360172186929563</v>
+      </c>
+      <c r="H97">
+        <v>-0.01153585277460177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2439241644578612</v>
+        <v>0.2752760164678178</v>
       </c>
       <c r="C98">
-        <v>0.07471642644234905</v>
+        <v>0.0342451156956298</v>
       </c>
       <c r="D98">
-        <v>-0.0489329199571352</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05921713510682779</v>
+      </c>
+      <c r="E98">
+        <v>0.175954066293187</v>
+      </c>
+      <c r="F98">
+        <v>-0.08438213559652627</v>
+      </c>
+      <c r="G98">
+        <v>0.22378640589009</v>
+      </c>
+      <c r="H98">
+        <v>0.2485932540148205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4540249870666714</v>
+        <v>0.2862967191575805</v>
       </c>
       <c r="C99">
-        <v>-0.874780121224779</v>
+        <v>-0.9342103175944584</v>
       </c>
       <c r="D99">
-        <v>0.05146707901264985</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1291122710263138</v>
+      </c>
+      <c r="E99">
+        <v>-0.06615242700938105</v>
+      </c>
+      <c r="F99">
+        <v>-0.04835985896975898</v>
+      </c>
+      <c r="G99">
+        <v>0.02408364363478655</v>
+      </c>
+      <c r="H99">
+        <v>-0.06487684404087535</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03950105261947802</v>
+        <v>0.04788347842422709</v>
       </c>
       <c r="C101">
-        <v>0.03117724098276848</v>
+        <v>0.02621055671905846</v>
       </c>
       <c r="D101">
-        <v>-0.003647822768174099</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.006633889138895277</v>
+      </c>
+      <c r="E101">
+        <v>-0.05486570201610915</v>
+      </c>
+      <c r="F101">
+        <v>-0.0004572445451841241</v>
+      </c>
+      <c r="G101">
+        <v>0.01309767298092674</v>
+      </c>
+      <c r="H101">
+        <v>-0.07748724933709712</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
